--- a/uploads/template_kelas.xlsx
+++ b/uploads/template_kelas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A407M\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="16275" windowHeight="5460"/>
   </bookViews>
@@ -27,58 +32,58 @@
     <t>Kode Kelas</t>
   </si>
   <si>
-    <t>Kelas 7A</t>
-  </si>
-  <si>
-    <t>Kelas 7B</t>
-  </si>
-  <si>
-    <t>Kelas 7C</t>
-  </si>
-  <si>
-    <t>Kelas 8A</t>
-  </si>
-  <si>
-    <t>Kelas 8B</t>
-  </si>
-  <si>
-    <t>Kelas 8C</t>
-  </si>
-  <si>
-    <t>Kelas 9A</t>
-  </si>
-  <si>
-    <t>Kelas 9B</t>
-  </si>
-  <si>
-    <t>Kelas 9C</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>9C</t>
+    <t>Kelas 7a</t>
+  </si>
+  <si>
+    <t>kelas 7b</t>
+  </si>
+  <si>
+    <t>kelas 7c</t>
+  </si>
+  <si>
+    <t>kelas 8a</t>
+  </si>
+  <si>
+    <t>kelas 8b</t>
+  </si>
+  <si>
+    <t>kelas 8c</t>
+  </si>
+  <si>
+    <t>kelas 9a</t>
+  </si>
+  <si>
+    <t>kelas 9b</t>
+  </si>
+  <si>
+    <t>kelas 9c</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>9c</t>
   </si>
 </sst>
 </file>
@@ -126,6 +131,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -173,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/uploads/template_kelas.xlsx
+++ b/uploads/template_kelas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tingkat</t>
   </si>
@@ -32,58 +32,40 @@
     <t>Kode Kelas</t>
   </si>
   <si>
-    <t>Kelas 7a</t>
-  </si>
-  <si>
-    <t>kelas 7b</t>
-  </si>
-  <si>
-    <t>kelas 7c</t>
-  </si>
-  <si>
-    <t>kelas 8a</t>
-  </si>
-  <si>
-    <t>kelas 8b</t>
-  </si>
-  <si>
-    <t>kelas 8c</t>
-  </si>
-  <si>
-    <t>kelas 9a</t>
-  </si>
-  <si>
-    <t>kelas 9b</t>
-  </si>
-  <si>
-    <t>kelas 9c</t>
-  </si>
-  <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>7c</t>
-  </si>
-  <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <t>8c</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>9c</t>
+    <t>Kelas 7A</t>
+  </si>
+  <si>
+    <t>Kelas 8A</t>
+  </si>
+  <si>
+    <t>Kelas 9A</t>
+  </si>
+  <si>
+    <t>Kelas 7B</t>
+  </si>
+  <si>
+    <t>Kelas 8B</t>
+  </si>
+  <si>
+    <t>Kelas 9B</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9C</t>
   </si>
 </sst>
 </file>
@@ -425,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,21 +442,21 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,65 +464,32 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
